--- a/data/genetic.xlsx
+++ b/data/genetic.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\plant genetic diversity effects on arthropods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/z3437171/Library/CloudStorage/Dropbox/Github Local/location-scale_meta-analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DF2F32-06C6-5943-A259-FEB11DFA09D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="20020" yWindow="21500" windowWidth="23040" windowHeight="9380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genetic diversity database" sheetId="1" r:id="rId1"/>
@@ -21,12 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="127">
   <si>
-    <t>Plant species</t>
-  </si>
-  <si>
-    <t>Plant type</t>
-  </si>
-  <si>
     <t>HERBIVORE</t>
   </si>
   <si>
@@ -201,21 +196,9 @@
     <t>12 different species</t>
   </si>
   <si>
-    <t>Trophic level</t>
-  </si>
-  <si>
-    <t>Response variable</t>
-  </si>
-  <si>
     <t>wild</t>
   </si>
   <si>
-    <t>Hedges' d</t>
-  </si>
-  <si>
-    <t>Var d</t>
-  </si>
-  <si>
     <t>Populus angustifolia</t>
   </si>
   <si>
@@ -396,16 +379,34 @@
     <t>several</t>
   </si>
   <si>
-    <t>Herbivore feeding specialization</t>
-  </si>
-  <si>
-    <t>Single vs several genotypes represented in monocultures</t>
+    <t>Trophic_level</t>
+  </si>
+  <si>
+    <t>Herbivore_feeding_specialization</t>
+  </si>
+  <si>
+    <t>Plant_species</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>Plant_type</t>
+  </si>
+  <si>
+    <t>Response_variable</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Var_d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1205,73 +1206,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>126</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
       </c>
       <c r="H2">
         <v>0.65300000000000002</v>
@@ -1280,24 +1281,24 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>-0.23300000000000001</v>
@@ -1306,24 +1307,24 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>9.7000000000000003E-2</v>
@@ -1332,24 +1333,24 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>2.4E-2</v>
@@ -1358,27 +1359,27 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>1.4999999999999999E-2</v>
@@ -1387,27 +1388,27 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>-0.47299999999999998</v>
@@ -1416,27 +1417,27 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>-2.7090000000000001</v>
@@ -1445,27 +1446,27 @@
         <v>0.95899999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>1.0640000000000001</v>
@@ -1474,27 +1475,27 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>0.187</v>
@@ -1503,27 +1504,27 @@
         <v>1.004</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>1.31</v>
@@ -1532,27 +1533,27 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>6.7000000000000004E-2</v>
@@ -1561,24 +1562,24 @@
         <v>1.0009999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13">
         <v>0.28399999999999997</v>
@@ -1587,27 +1588,27 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1616,24 +1617,24 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>0.85299999999999998</v>
@@ -1642,24 +1643,24 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
         <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
       </c>
       <c r="H16">
         <v>0.48599999999999999</v>
@@ -1668,24 +1669,24 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>0.34300000000000003</v>
@@ -1694,24 +1695,24 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H18">
         <v>0.32</v>
@@ -1720,24 +1721,24 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>0.40500000000000003</v>
@@ -1746,24 +1747,24 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H20">
         <v>0.372</v>
@@ -1772,24 +1773,24 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>0.81299999999999994</v>
@@ -1798,24 +1799,24 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H22">
         <v>0.29199999999999998</v>
@@ -1824,24 +1825,24 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <v>0.51500000000000001</v>
@@ -1850,24 +1851,24 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H24">
         <v>0.20499999999999999</v>
@@ -1876,27 +1877,27 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H25">
         <v>-0.108</v>
@@ -1905,27 +1906,27 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H26">
         <v>0.997</v>
@@ -1934,27 +1935,27 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1963,27 +1964,27 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <v>0.78300000000000003</v>
@@ -1992,24 +1993,24 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <v>-4.7E-2</v>
@@ -2018,24 +2019,24 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" t="s">
         <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" t="s">
-        <v>18</v>
       </c>
       <c r="H30">
         <v>0.124</v>
@@ -2044,24 +2045,24 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <v>-0.13900000000000001</v>
@@ -2070,24 +2071,24 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H32">
         <v>-5.5E-2</v>
@@ -2096,24 +2097,24 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H33">
         <v>0.47099999999999997</v>
@@ -2122,24 +2123,24 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H34">
         <v>0.375</v>
@@ -2148,24 +2149,24 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" t="s">
         <v>16</v>
-      </c>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" t="s">
-        <v>124</v>
-      </c>
-      <c r="F35" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" t="s">
-        <v>18</v>
       </c>
       <c r="H35">
         <v>1.5249999999999999</v>
@@ -2174,24 +2175,24 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H36">
         <v>1.08</v>
@@ -2200,24 +2201,24 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H37">
         <v>1.377</v>
@@ -2226,24 +2227,24 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" t="s">
         <v>16</v>
-      </c>
-      <c r="D38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" t="s">
-        <v>62</v>
-      </c>
-      <c r="G38" t="s">
-        <v>18</v>
       </c>
       <c r="H38">
         <v>0.84399999999999997</v>
@@ -2252,24 +2253,24 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H39">
         <v>0.503</v>
@@ -2278,24 +2279,24 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" t="s">
         <v>16</v>
-      </c>
-      <c r="D40" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" t="s">
-        <v>18</v>
       </c>
       <c r="H40">
         <v>1.6890000000000001</v>
@@ -2304,24 +2305,24 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" t="s">
         <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" t="s">
-        <v>18</v>
       </c>
       <c r="H41">
         <v>0.252</v>
@@ -2330,24 +2331,24 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H42">
         <v>0.76</v>
@@ -2356,24 +2357,24 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H43">
         <v>0.84799999999999998</v>
@@ -2382,24 +2383,24 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H44">
         <v>1.2569999999999999</v>
@@ -2408,24 +2409,24 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H45">
         <v>0.70199999999999996</v>
@@ -2434,24 +2435,24 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <v>0.78700000000000003</v>
@@ -2460,24 +2461,24 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" t="s">
         <v>16</v>
-      </c>
-      <c r="D47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" t="s">
-        <v>124</v>
-      </c>
-      <c r="F47" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47" t="s">
-        <v>18</v>
       </c>
       <c r="H47">
         <v>0.56299999999999994</v>
@@ -2486,27 +2487,27 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H48">
         <v>7.0000000000000001E-3</v>
@@ -2515,27 +2516,27 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
         <v>6</v>
       </c>
-      <c r="D49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H49">
         <v>-1.389</v>
@@ -2544,27 +2545,27 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
         <v>6</v>
       </c>
-      <c r="D50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>-0.29899999999999999</v>
@@ -2573,27 +2574,27 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
         <v>6</v>
       </c>
-      <c r="D51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H51">
         <v>-1.175</v>
@@ -2602,24 +2603,24 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H52">
         <v>-0.29899999999999999</v>
@@ -2628,24 +2629,24 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H53">
         <v>-0.27</v>
@@ -2654,27 +2655,27 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
         <v>9</v>
       </c>
-      <c r="D54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" t="s">
-        <v>11</v>
-      </c>
       <c r="G54" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <v>-0.374</v>
@@ -2683,27 +2684,27 @@
         <v>0.50900000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
         <v>6</v>
       </c>
-      <c r="D55" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2712,27 +2713,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
         <v>9</v>
       </c>
-      <c r="D56" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>11</v>
-      </c>
       <c r="G56" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>-0.42799999999999999</v>
@@ -2741,27 +2742,27 @@
         <v>1.0229999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
         <v>6</v>
       </c>
-      <c r="D57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G57" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H57">
         <v>-0.18099999999999999</v>
@@ -2770,24 +2771,24 @@
         <v>1.004</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H58">
         <v>-0.13500000000000001</v>
@@ -2796,27 +2797,27 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H59">
         <v>-0.36799999999999999</v>
@@ -2825,27 +2826,27 @@
         <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>9</v>
       </c>
-      <c r="D60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" t="s">
-        <v>124</v>
-      </c>
-      <c r="F60" t="s">
-        <v>11</v>
-      </c>
       <c r="G60" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H60">
         <v>0.214</v>
@@ -2854,24 +2855,24 @@
         <v>0.503</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H61">
         <v>-0.79900000000000004</v>
@@ -2880,27 +2881,27 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E62" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>-0.93300000000000005</v>
@@ -2909,24 +2910,24 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63" t="s">
         <v>16</v>
-      </c>
-      <c r="D63" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" t="s">
-        <v>124</v>
-      </c>
-      <c r="F63" t="s">
-        <v>62</v>
-      </c>
-      <c r="G63" t="s">
-        <v>18</v>
       </c>
       <c r="H63">
         <v>1.0009999999999999</v>
@@ -2935,24 +2936,24 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H64">
         <v>0.85199999999999998</v>
@@ -2961,24 +2962,24 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G65" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H65">
         <v>-0.24199999999999999</v>
@@ -2987,24 +2988,24 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H66">
         <v>0.65300000000000002</v>
@@ -3013,24 +3014,24 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G67" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H67">
         <v>0.77300000000000002</v>
@@ -3039,24 +3040,24 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E68" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F68" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H68">
         <v>0.20699999999999999</v>
@@ -3065,24 +3066,24 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>0.255</v>
@@ -3091,24 +3092,24 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F70" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H70">
         <v>0.20699999999999999</v>
@@ -3117,24 +3118,24 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E71" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>0.25900000000000001</v>
@@ -3143,24 +3144,24 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E72" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F72" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3169,24 +3170,24 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G73" t="s">
         <v>16</v>
-      </c>
-      <c r="D73" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" t="s">
-        <v>124</v>
-      </c>
-      <c r="F73" t="s">
-        <v>62</v>
-      </c>
-      <c r="G73" t="s">
-        <v>18</v>
       </c>
       <c r="H73">
         <v>0.38</v>
@@ -3195,24 +3196,24 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E74" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G74" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H74">
         <v>0.13800000000000001</v>
@@ -3221,27 +3222,27 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E75" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F75" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3250,27 +3251,27 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" t="s">
         <v>6</v>
       </c>
-      <c r="D76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E76" t="s">
-        <v>8</v>
-      </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>2.5099999999999998</v>
@@ -3279,27 +3280,27 @@
         <v>1.788</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" t="s">
         <v>6</v>
       </c>
-      <c r="D77" t="s">
-        <v>39</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H77">
         <v>1.7829999999999999</v>
@@ -3308,24 +3309,24 @@
         <v>1.397</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H78">
         <v>-0.44600000000000001</v>
@@ -3334,27 +3335,27 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G79" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H79">
         <v>0.95899999999999996</v>
@@ -3363,24 +3364,24 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F80" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>-0.44500000000000001</v>
@@ -3389,24 +3390,24 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F81" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>-0.41899999999999998</v>
@@ -3415,27 +3416,27 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>118</v>
+      </c>
+      <c r="F82" t="s">
         <v>9</v>
       </c>
-      <c r="D82" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" t="s">
-        <v>11</v>
-      </c>
       <c r="G82" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H82">
         <v>-7.8E-2</v>
@@ -3444,24 +3445,24 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H83">
         <v>-0.872</v>
@@ -3470,24 +3471,24 @@
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E84" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F84" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G84" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H84">
         <v>1.5129999999999999</v>
@@ -3496,24 +3497,24 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E85" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F85" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H85">
         <v>1.3049999999999999</v>
@@ -3522,27 +3523,27 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E86" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F86" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G86" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H86">
         <v>1.4370000000000001</v>
@@ -3551,24 +3552,24 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E87" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F87" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G87" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H87">
         <v>0.92900000000000005</v>
@@ -3577,24 +3578,24 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E88" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F88" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G88" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H88">
         <v>1.323</v>
@@ -3603,27 +3604,27 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F89" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H89">
         <v>-0.19</v>
@@ -3632,27 +3633,27 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E90" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F90" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G90" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H90">
         <v>-0.75800000000000001</v>
@@ -3661,27 +3662,27 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E91" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F91" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H91">
         <v>0.253</v>
@@ -3690,27 +3691,27 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" t="s">
+        <v>118</v>
+      </c>
+      <c r="F92" t="s">
         <v>9</v>
       </c>
-      <c r="D92" t="s">
-        <v>45</v>
-      </c>
-      <c r="E92" t="s">
-        <v>124</v>
-      </c>
-      <c r="F92" t="s">
-        <v>11</v>
-      </c>
       <c r="G92" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H92">
         <v>-0.90800000000000003</v>
@@ -3719,27 +3720,27 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" t="s">
+        <v>118</v>
+      </c>
+      <c r="F93" t="s">
         <v>9</v>
       </c>
-      <c r="D93" t="s">
-        <v>47</v>
-      </c>
-      <c r="E93" t="s">
-        <v>124</v>
-      </c>
-      <c r="F93" t="s">
-        <v>11</v>
-      </c>
       <c r="G93" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H93">
         <v>-0.46899999999999997</v>
@@ -3748,27 +3749,27 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" t="s">
+        <v>118</v>
+      </c>
+      <c r="F94" t="s">
         <v>9</v>
       </c>
-      <c r="D94" t="s">
-        <v>47</v>
-      </c>
-      <c r="E94" t="s">
-        <v>124</v>
-      </c>
-      <c r="F94" t="s">
-        <v>11</v>
-      </c>
       <c r="G94" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H94">
         <v>-0.73899999999999999</v>
@@ -3777,27 +3778,27 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" t="s">
+        <v>118</v>
+      </c>
+      <c r="F95" t="s">
         <v>9</v>
       </c>
-      <c r="D95" t="s">
-        <v>48</v>
-      </c>
-      <c r="E95" t="s">
-        <v>124</v>
-      </c>
-      <c r="F95" t="s">
-        <v>11</v>
-      </c>
       <c r="G95" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H95">
         <v>-1.5349999999999999</v>
@@ -3806,27 +3807,27 @@
         <v>0.64700000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s">
         <v>9</v>
       </c>
-      <c r="D96" t="s">
-        <v>26</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" t="s">
-        <v>11</v>
-      </c>
       <c r="G96" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H96">
         <v>-0.31</v>
@@ -3835,27 +3836,27 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B97" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
         <v>9</v>
       </c>
-      <c r="D97" t="s">
-        <v>26</v>
-      </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" t="s">
-        <v>11</v>
-      </c>
       <c r="G97" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H97">
         <v>-0.20699999999999999</v>
@@ -3864,27 +3865,27 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F98" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G98" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H98">
         <v>0.74399999999999999</v>
@@ -3893,27 +3894,27 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F99" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>0.85099999999999998</v>
@@ -3922,27 +3923,27 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E100" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F100" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G100" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H100">
         <v>-1.4E-2</v>
@@ -3951,27 +3952,27 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E101" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F101" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G101" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H101">
         <v>0.25900000000000001</v>
@@ -3980,27 +3981,27 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E102" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F102" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H102">
         <v>-0.122</v>
@@ -4009,27 +4010,27 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B103" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D103" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E103" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F103" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G103" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H103">
         <v>-0.34399999999999997</v>
@@ -4038,27 +4039,27 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B104" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E104" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F104" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G104" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H104">
         <v>-0.32400000000000001</v>
@@ -4067,24 +4068,24 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D105" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E105" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F105" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G105" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H105">
         <v>-0.33300000000000002</v>
@@ -4093,24 +4094,24 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B106" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D106" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E106" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F106" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G106" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H106">
         <v>0.10100000000000001</v>
@@ -4119,24 +4120,24 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B107" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E107" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F107" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G107" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H107">
         <v>0.10199999999999999</v>
@@ -4145,27 +4146,27 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B108" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F108" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G108" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H108">
         <v>-0.14299999999999999</v>
@@ -4174,24 +4175,24 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D109" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F109" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G109" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H109">
         <v>0.3</v>
@@ -4200,27 +4201,27 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B110" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F110" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G110" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H110">
         <v>-0.624</v>
@@ -4229,27 +4230,27 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B111" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D111" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F111" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G111" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H111">
         <v>0.3</v>
@@ -4258,27 +4259,27 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E112" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F112" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G112" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H112">
         <v>-0.44800000000000001</v>
@@ -4287,27 +4288,27 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B113" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s">
+        <v>50</v>
+      </c>
+      <c r="E113" t="s">
+        <v>118</v>
+      </c>
+      <c r="F113" t="s">
         <v>9</v>
       </c>
-      <c r="D113" t="s">
-        <v>52</v>
-      </c>
-      <c r="E113" t="s">
-        <v>124</v>
-      </c>
-      <c r="F113" t="s">
-        <v>11</v>
-      </c>
       <c r="G113" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H113">
         <v>-1.006</v>
@@ -4316,27 +4317,27 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B114" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G114" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H114">
         <v>0.20100000000000001</v>
@@ -4345,24 +4346,24 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B115" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D115" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H115">
         <v>-0.19400000000000001</v>
@@ -4371,27 +4372,27 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B116" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F116" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G116" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H116">
         <v>0.39300000000000002</v>
@@ -4400,27 +4401,27 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B117" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F117" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G117" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H117">
         <v>-0.35399999999999998</v>
@@ -4429,24 +4430,24 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" t="s">
+        <v>51</v>
+      </c>
+      <c r="E118" t="s">
+        <v>118</v>
+      </c>
+      <c r="F118" t="s">
+        <v>58</v>
+      </c>
+      <c r="G118" t="s">
         <v>16</v>
-      </c>
-      <c r="D118" t="s">
-        <v>53</v>
-      </c>
-      <c r="E118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F118" t="s">
-        <v>62</v>
-      </c>
-      <c r="G118" t="s">
-        <v>18</v>
       </c>
       <c r="H118">
         <v>0.51900000000000002</v>
@@ -4455,24 +4456,24 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F119" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>0.58899999999999997</v>
@@ -4481,24 +4482,24 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F120" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H120">
         <v>0.35599999999999998</v>
@@ -4507,27 +4508,27 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B121" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E121" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F121" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G121" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H121">
         <v>-0.34799999999999998</v>
@@ -4536,24 +4537,24 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B122" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D122" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E122" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F122" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H122">
         <v>-0.22700000000000001</v>
@@ -4562,24 +4563,24 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D123" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E123" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F123" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G123" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H123">
         <v>0.45900000000000002</v>
@@ -4588,24 +4589,24 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>48</v>
+      </c>
+      <c r="E124" t="s">
+        <v>118</v>
+      </c>
+      <c r="F124" t="s">
+        <v>58</v>
+      </c>
+      <c r="G124" t="s">
         <v>16</v>
-      </c>
-      <c r="D124" t="s">
-        <v>50</v>
-      </c>
-      <c r="E124" t="s">
-        <v>124</v>
-      </c>
-      <c r="F124" t="s">
-        <v>62</v>
-      </c>
-      <c r="G124" t="s">
-        <v>18</v>
       </c>
       <c r="H124">
         <v>1.0569999999999999</v>
@@ -4614,24 +4615,24 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B125" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F125" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G125" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H125">
         <v>0.29899999999999999</v>
@@ -4640,24 +4641,24 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D126" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F126" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G126" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H126">
         <v>0.86399999999999999</v>
@@ -4666,24 +4667,24 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E127" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F127" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H127">
         <v>1.0269999999999999</v>
@@ -4692,24 +4693,24 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B128" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F128" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G128" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H128">
         <v>0.23400000000000001</v>
@@ -4718,24 +4719,24 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D129" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F129" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G129" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H129">
         <v>0.28499999999999998</v>
@@ -4744,24 +4745,24 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B130" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G130" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H130">
         <v>-2.4660000000000002</v>
@@ -4770,27 +4771,27 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B131" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" t="s">
+        <v>118</v>
+      </c>
+      <c r="F131" t="s">
         <v>9</v>
       </c>
-      <c r="D131" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131" t="s">
-        <v>124</v>
-      </c>
-      <c r="F131" t="s">
-        <v>11</v>
-      </c>
       <c r="G131" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H131">
         <v>-0.498</v>
@@ -4799,27 +4800,27 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B132" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G132" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H132">
         <v>0.877</v>
@@ -4828,24 +4829,24 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B133" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G133" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H133">
         <v>-0.56999999999999995</v>
@@ -4854,24 +4855,24 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B134" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G134" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H134">
         <v>-3.7999999999999999E-2</v>
@@ -4880,27 +4881,27 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B135" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E135" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F135" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G135" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H135">
         <v>-0.47699999999999998</v>
@@ -4909,24 +4910,24 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F136" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G136" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H136">
         <v>-0.20499999999999999</v>
@@ -4935,24 +4936,24 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" t="s">
+        <v>118</v>
+      </c>
+      <c r="F137" t="s">
+        <v>58</v>
+      </c>
+      <c r="G137" t="s">
         <v>16</v>
-      </c>
-      <c r="D137" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137" t="s">
-        <v>124</v>
-      </c>
-      <c r="F137" t="s">
-        <v>62</v>
-      </c>
-      <c r="G137" t="s">
-        <v>18</v>
       </c>
       <c r="H137">
         <v>-0.40500000000000003</v>
@@ -4961,27 +4962,27 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B138" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F138" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G138" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -4990,27 +4991,27 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B139" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D139" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F139" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G139" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H139">
         <v>0.20599999999999999</v>
@@ -5019,27 +5020,27 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B140" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" t="s">
+        <v>46</v>
+      </c>
+      <c r="E140" t="s">
+        <v>118</v>
+      </c>
+      <c r="F140" t="s">
         <v>9</v>
       </c>
-      <c r="D140" t="s">
-        <v>48</v>
-      </c>
-      <c r="E140" t="s">
-        <v>124</v>
-      </c>
-      <c r="F140" t="s">
-        <v>11</v>
-      </c>
       <c r="G140" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H140">
         <v>7.9000000000000001E-2</v>
@@ -5048,24 +5049,24 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D141" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E141" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G141" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H141">
         <v>0.36499999999999999</v>
@@ -5074,24 +5075,24 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B142" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D142" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E142" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G142" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H142">
         <v>-9.9000000000000005E-2</v>
@@ -5100,27 +5101,27 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B143" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C143" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" t="s">
+        <v>52</v>
+      </c>
+      <c r="E143" t="s">
+        <v>118</v>
+      </c>
+      <c r="F143" t="s">
         <v>9</v>
       </c>
-      <c r="D143" t="s">
-        <v>54</v>
-      </c>
-      <c r="E143" t="s">
-        <v>124</v>
-      </c>
-      <c r="F143" t="s">
-        <v>11</v>
-      </c>
       <c r="G143" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H143">
         <v>2.4E-2</v>
@@ -5129,27 +5130,27 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B144" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C144" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" t="s">
+        <v>52</v>
+      </c>
+      <c r="E144" t="s">
+        <v>118</v>
+      </c>
+      <c r="F144" t="s">
         <v>9</v>
       </c>
-      <c r="D144" t="s">
-        <v>54</v>
-      </c>
-      <c r="E144" t="s">
-        <v>124</v>
-      </c>
-      <c r="F144" t="s">
-        <v>11</v>
-      </c>
       <c r="G144" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H144">
         <v>0.104</v>
@@ -5158,27 +5159,27 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B145" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F145" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G145" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H145">
         <v>-0.69099999999999995</v>
@@ -5187,27 +5188,27 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B146" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F146" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G146" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H146">
         <v>2.1999999999999999E-2</v>
@@ -5216,24 +5217,24 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B147" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E147" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F147" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G147" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H147">
         <v>1.0649999999999999</v>
@@ -5242,24 +5243,24 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B148" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E148" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F148" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H148">
         <v>0.155</v>
@@ -5268,24 +5269,24 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B149" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E149" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F149" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G149" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H149">
         <v>-1.0089999999999999</v>
@@ -5294,27 +5295,27 @@
         <v>0.752</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B150" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>54</v>
+      </c>
+      <c r="E150" t="s">
         <v>6</v>
       </c>
-      <c r="D150" t="s">
-        <v>56</v>
-      </c>
-      <c r="E150" t="s">
-        <v>8</v>
-      </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G150" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H150">
         <v>-1.1890000000000001</v>
@@ -5323,27 +5324,27 @@
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B151" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E151" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G151" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H151">
         <v>3.0000000000000001E-3</v>
@@ -5352,27 +5353,27 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B152" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" t="s">
+        <v>55</v>
+      </c>
+      <c r="E152" t="s">
+        <v>118</v>
+      </c>
+      <c r="F152" t="s">
         <v>9</v>
       </c>
-      <c r="D152" t="s">
-        <v>57</v>
-      </c>
-      <c r="E152" t="s">
-        <v>124</v>
-      </c>
-      <c r="F152" t="s">
-        <v>11</v>
-      </c>
       <c r="G152" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H152">
         <v>-0.498</v>
@@ -5381,27 +5382,27 @@
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B153" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D153" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E153" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G153" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H153">
         <v>0.252</v>
@@ -5410,24 +5411,24 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B154" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D154" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E154" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G154" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H154">
         <v>0.27200000000000002</v>
@@ -5436,24 +5437,24 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B155" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D155" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E155" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G155" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H155">
         <v>0.69599999999999995</v>
@@ -5462,24 +5463,24 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B156" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D156" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E156" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G156" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H156">
         <v>0.53700000000000003</v>
@@ -5488,27 +5489,27 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B157" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" t="s">
+        <v>56</v>
+      </c>
+      <c r="E157" t="s">
         <v>6</v>
       </c>
-      <c r="D157" t="s">
-        <v>58</v>
-      </c>
-      <c r="E157" t="s">
-        <v>8</v>
-      </c>
       <c r="F157" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G157" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H157">
         <v>-0.52900000000000003</v>
@@ -5517,27 +5518,27 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B158" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>56</v>
+      </c>
+      <c r="E158" t="s">
         <v>6</v>
       </c>
-      <c r="D158" t="s">
-        <v>58</v>
-      </c>
-      <c r="E158" t="s">
-        <v>8</v>
-      </c>
       <c r="F158" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G158" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H158">
         <v>0.41199999999999998</v>
@@ -5546,27 +5547,27 @@
         <v>0.68100000000000005</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B159" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C159" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>56</v>
+      </c>
+      <c r="E159" t="s">
         <v>6</v>
       </c>
-      <c r="D159" t="s">
-        <v>58</v>
-      </c>
-      <c r="E159" t="s">
-        <v>8</v>
-      </c>
       <c r="F159" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G159" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H159">
         <v>-0.15</v>
@@ -5575,27 +5576,27 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B160" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E160" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G160" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H160">
         <v>0.22500000000000001</v>
@@ -5604,24 +5605,24 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B161" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E161" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F161" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G161" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H161">
         <v>-2.3E-2</v>
@@ -5630,27 +5631,27 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B162" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" t="s">
         <v>6</v>
       </c>
-      <c r="D162" t="s">
-        <v>10</v>
-      </c>
-      <c r="E162" t="s">
-        <v>8</v>
-      </c>
       <c r="F162" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G162" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H162">
         <v>-0.17199999999999999</v>
@@ -5659,24 +5660,24 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E163" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F163" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H163">
         <v>2.4039999999999999</v>
